--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,37 +647,37 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.73</v>
@@ -695,19 +695,19 @@
         <v>9</v>
       </c>
       <c r="W2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X2" t="n">
         <v>17</v>
       </c>
-      <c r="X2" t="n">
-        <v>15</v>
-      </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
@@ -719,10 +719,10 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -892,9 +892,15 @@
           <t>Flora</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -905,23 +911,57 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U5" t="n">
+        <v>40</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>120</v>
+      </c>
+      <c r="X5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -954,9 +994,15 @@
           <t>Tallinna Kalev</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -967,23 +1013,57 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1016,9 +1096,15 @@
           <t>Harju JK Laagri</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -1029,23 +1115,57 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1079,10 +1199,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>3.8</v>
@@ -1094,79 +1214,79 @@
         <v>9.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P8" t="n">
         <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>9.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1240,7 +1360,7 @@
         <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
         <v>26</v>
@@ -1326,28 +1446,28 @@
         <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>1.06</v>
       </c>
       <c r="K10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1365,10 +1485,10 @@
         <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W10" t="n">
         <v>21</v>
@@ -1383,7 +1503,7 @@
         <v>9.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1398,7 +1518,7 @@
         <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1457,7 +1577,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -662,16 +662,16 @@
         <v>9.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -686,22 +686,22 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
+        <v>23</v>
+      </c>
+      <c r="X2" t="n">
         <v>19</v>
       </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
@@ -719,19 +719,19 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AF2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -912,13 +912,13 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="U5" t="n">
         <v>40</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="W5" t="n">
         <v>120</v>
@@ -930,22 +930,22 @@
         <v>45</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD5" t="n">
         <v>300</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -954,13 +954,13 @@
         <v>7.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1014,19 +1014,19 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1035,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
         <v>9.25</v>
@@ -1047,19 +1047,19 @@
         <v>120</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>17.5</v>
@@ -1100,10 +1100,10 @@
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
         <v>9.25</v>
       </c>
       <c r="V7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W7" t="n">
         <v>12.5</v>
@@ -1149,19 +1149,19 @@
         <v>150</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
@@ -1199,25 +1199,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
         <v>1.88</v>
@@ -1226,67 +1226,67 @@
         <v>1.93</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1580,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N11" t="n">
         <v>2.05</v>
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1708,10 +1708,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1720,10 +1720,10 @@
         <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1762,10 +1762,10 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
@@ -1930,36 +1930,96 @@
           <t>Aarau</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -918,43 +918,43 @@
         <v>40</v>
       </c>
       <c r="V5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
         <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>50</v>
       </c>
       <c r="AD5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE5" t="n">
         <v>8</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG5" t="n">
         <v>7.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI5" t="n">
         <v>8.75</v>
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1014,16 +1014,16 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="W6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1035,10 +1035,10 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>26</v>
@@ -1047,16 +1047,16 @@
         <v>120</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
         <v>16.5</v>
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1241,7 +1241,7 @@
         <v>7.5</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
@@ -1268,19 +1268,19 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
         <v>34</v>
@@ -1565,19 +1565,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1604,10 +1604,10 @@
         <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1619,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
         <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1646,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1708,10 +1708,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1931,13 +1931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -686,19 +686,19 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -719,19 +719,19 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
         <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -912,55 +912,55 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
         <v>40</v>
       </c>
       <c r="V5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="W5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="n">
         <v>50</v>
       </c>
-      <c r="Y5" t="n">
-        <v>40</v>
-      </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD5" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI5" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1116,55 +1116,55 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X7" t="n">
         <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD7" t="n">
         <v>150</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1214,16 +1214,16 @@
         <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1443,13 +1443,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.06</v>
@@ -1500,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1521,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
@@ -1586,10 +1586,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1652,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1830,10 +1830,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>2.05</v>
@@ -1931,19 +1931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -1952,10 +1952,10 @@
         <v>4.33</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -1964,25 +1964,25 @@
         <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
         <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -1991,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2003,22 +2003,22 @@
         <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -912,55 +912,55 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="U5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
+        <v>26</v>
+      </c>
+      <c r="W5" t="n">
+        <v>200</v>
+      </c>
+      <c r="X5" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB5" t="n">
         <v>19.5</v>
       </c>
-      <c r="W5" t="n">
-        <v>120</v>
-      </c>
-      <c r="X5" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>16</v>
-      </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE5" t="n">
         <v>7.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI5" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1119,28 +1119,28 @@
         <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W7" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X7" t="n">
         <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
         <v>32</v>
@@ -1149,13 +1149,13 @@
         <v>150</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>65</v>
@@ -1164,7 +1164,7 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1458,10 +1458,10 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N10" t="n">
         <v>2.05</v>
@@ -1500,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -680,61 +680,61 @@
         <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="n">
         <v>41</v>
       </c>
-      <c r="AD2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>34</v>
       </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -912,55 +912,55 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI5" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1220,10 +1220,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1241,13 +1241,13 @@
         <v>7.5</v>
       </c>
       <c r="U8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V8" t="n">
         <v>9</v>
       </c>
-      <c r="V8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1268,25 +1268,25 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1360,10 +1360,10 @@
         <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V9" t="n">
         <v>15</v>
@@ -1390,13 +1390,13 @@
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
@@ -1443,25 +1443,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N10" t="n">
         <v>2.05</v>
@@ -1491,16 +1491,16 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
+        <v>23</v>
+      </c>
+      <c r="X10" t="n">
         <v>21</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1524,10 +1524,10 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1577,7 +1577,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1586,10 +1586,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -689,7 +689,7 @@
         <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -830,36 +830,92 @@
           <t>Imbabura</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" t="n">
+        <v>27</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -893,13 +949,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -912,31 +968,31 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
         <v>150</v>
       </c>
       <c r="X5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
         <v>55</v>
       </c>
       <c r="Z5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB5" t="n">
         <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
         <v>65</v>
@@ -945,22 +1001,22 @@
         <v>400</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI5" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1097,13 +1153,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1116,55 +1172,55 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1208,10 +1264,10 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1220,10 +1276,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1244,7 +1300,7 @@
         <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1256,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
@@ -1268,13 +1324,13 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1286,7 +1342,7 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1973,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
         <v>17</v>
@@ -2006,10 +2062,10 @@
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
@@ -949,20 +949,24 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.2</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -971,52 +975,52 @@
         <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
         <v>9.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1264,13 +1268,13 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>3.5</v>
@@ -1282,7 +1286,7 @@
         <v>1.85</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1377,13 +1381,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1392,34 +1396,34 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V9" t="n">
         <v>15</v>
@@ -1434,7 +1438,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1499,31 +1503,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1538,7 +1542,7 @@
         <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1547,19 +1551,19 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1571,7 +1575,7 @@
         <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1580,10 +1584,10 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1752,13 +1756,13 @@
         <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>3.75</v>
@@ -1770,7 +1774,7 @@
         <v>1.98</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
         <v>3.25</v>
@@ -1880,16 +1884,16 @@
         <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1987,13 +1991,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2017,10 +2021,10 @@
         <v>1.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
         <v>2.2</v>
@@ -2035,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
         <v>13</v>
@@ -2050,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -768,36 +768,90 @@
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>16</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>120</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1268,25 +1322,25 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1408,7 +1462,7 @@
         <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
         <v>3.25</v>
@@ -1441,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1524,10 +1578,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1625,19 +1679,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1667,7 +1721,7 @@
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1682,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -1706,10 +1760,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>29</v>
@@ -1756,13 +1810,13 @@
         <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>3.75</v>
@@ -1774,7 +1828,7 @@
         <v>1.98</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
         <v>3.25</v>
@@ -1869,10 +1923,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>3.2</v>
@@ -1884,16 +1938,16 @@
         <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1947,16 +2001,16 @@
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1991,13 +2045,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2018,19 +2072,19 @@
         <v>2.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
         <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
@@ -2072,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -772,85 +772,85 @@
         <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.47</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>2.32</v>
       </c>
-      <c r="N3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="U3" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF3" t="n">
         <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1578,10 +1578,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1590,16 +1590,16 @@
         <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1608,28 +1608,28 @@
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1641,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1694,16 +1694,16 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1801,13 +1801,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -1861,13 +1861,13 @@
         <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
@@ -2045,13 +2045,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2066,16 +2066,16 @@
         <v>4.33</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R14" t="n">
         <v>1.62</v>
@@ -2099,7 +2099,7 @@
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
         <v>13</v>
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -689,7 +689,7 @@
         <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
         <v>4.15</v>
@@ -780,77 +780,79 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U3" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="X3" t="n">
         <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="n">
         <v>7.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>800</v>
+      </c>
       <c r="AE3" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="n">
         <v>45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1109,13 +1111,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1128,16 +1130,16 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V6" t="n">
         <v>7.8</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1146,34 +1148,34 @@
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD6" t="n">
         <v>120</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>17.5</v>
@@ -1211,13 +1213,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1230,55 +1232,55 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="V7" t="n">
         <v>7.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X7" t="n">
         <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
         <v>7.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="n">
         <v>200</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1578,16 +1580,16 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>1.67</v>
@@ -1679,10 +1681,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>2.63</v>
@@ -1694,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
         <v>13</v>
@@ -1736,22 +1738,22 @@
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -1923,31 +1925,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1971,16 +1973,16 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -1992,7 +1994,7 @@
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
@@ -2010,7 +2012,7 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2066,10 +2068,10 @@
         <v>4.33</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-27.xlsx
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1336,10 +1336,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.7</v>
@@ -1452,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
         <v>1.75</v>
@@ -1464,7 +1464,7 @@
         <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
         <v>3.25</v>
@@ -1476,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V9" t="n">
         <v>15</v>
@@ -1488,13 +1488,13 @@
         <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7.5</v>
@@ -1509,7 +1509,7 @@
         <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>8.5</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1568,40 +1568,40 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
         <v>11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>12</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1610,28 +1610,28 @@
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1646,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1696,16 +1696,16 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1934,22 +1934,22 @@
         <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2056,16 +2056,16 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>1.7</v>
